--- a/branches/5.0/tables/Grille-présentation du projet-S-SI.xlsx
+++ b/branches/5.0/tables/Grille-présentation du projet-S-SI.xlsx
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Identification!$A$3:$B$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Présentation du projet'!$A$1:$O$29</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -1234,132 +1235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1408,6 +1283,132 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1591,12 +1592,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="60745216"/>
-        <c:axId val="60833792"/>
+        <c:axId val="121891456"/>
+        <c:axId val="121975168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60745216"/>
+        <c:axId val="121891456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1613,14 +1613,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="60833792"/>
+        <c:crossAx val="121975168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60833792"/>
+        <c:axId val="121975168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1630,10 +1630,10 @@
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="60745216"/>
+        <c:crossAx val="121891456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.33330000000000343"/>
+        <c:majorUnit val="0.33330000000000354"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1675,7 +1675,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.75000000000000366" r="0.75000000000000366" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.75000000000000377" r="0.75000000000000377" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1732,12 +1732,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="61008512"/>
-        <c:axId val="61211776"/>
+        <c:axId val="122163968"/>
+        <c:axId val="122165888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61008512"/>
+        <c:axId val="122163968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1754,14 +1753,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="61211776"/>
+        <c:crossAx val="122165888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61211776"/>
+        <c:axId val="122165888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1771,10 +1770,10 @@
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="61008512"/>
+        <c:crossAx val="122163968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.33330000000000343"/>
+        <c:majorUnit val="0.33330000000000354"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1816,7 +1815,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.75000000000000366" r="0.75000000000000366" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.75000000000000377" r="0.75000000000000377" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1873,12 +1872,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="82093184"/>
-        <c:axId val="82268544"/>
+        <c:axId val="122198656"/>
+        <c:axId val="121840000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82093184"/>
+        <c:axId val="122198656"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1895,14 +1893,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="82268544"/>
+        <c:crossAx val="121840000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82268544"/>
+        <c:axId val="121840000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1912,10 +1910,10 @@
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="82093184"/>
+        <c:crossAx val="122198656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.33330000000000343"/>
+        <c:majorUnit val="0.33330000000000354"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1957,7 +1955,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.75000000000000366" r="0.75000000000000366" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.75000000000000377" r="0.75000000000000377" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2014,12 +2012,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="84858368"/>
-        <c:axId val="84859904"/>
+        <c:axId val="121879936"/>
+        <c:axId val="121967744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84858368"/>
+        <c:axId val="121879936"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2036,14 +2033,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="84859904"/>
+        <c:crossAx val="121967744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84859904"/>
+        <c:axId val="121967744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2053,10 +2050,10 @@
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="84858368"/>
+        <c:crossAx val="121879936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.33330000000000343"/>
+        <c:majorUnit val="0.33330000000000354"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2098,7 +2095,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.75000000000000366" r="0.75000000000000366" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.75000000000000377" r="0.75000000000000377" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2170,12 +2167,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="109013632"/>
-        <c:axId val="115093504"/>
+        <c:axId val="121999744"/>
+        <c:axId val="122001280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109013632"/>
+        <c:axId val="121999744"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2192,14 +2188,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="115093504"/>
+        <c:crossAx val="122001280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115093504"/>
+        <c:axId val="122001280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2209,10 +2205,10 @@
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="109013632"/>
+        <c:crossAx val="121999744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.33330000000000343"/>
+        <c:majorUnit val="0.33330000000000354"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2254,7 +2250,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.75000000000000366" r="0.75000000000000366" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.75000000000000377" r="0.75000000000000377" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2271,7 +2267,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.3691275167785095E-2"/>
-          <c:y val="2.2831152036744219E-2"/>
+          <c:y val="2.2831152036744226E-2"/>
           <c:w val="0.91946308724832049"/>
           <c:h val="0.95890838554324298"/>
         </c:manualLayout>
@@ -2354,12 +2350,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="58046336"/>
-        <c:axId val="58047872"/>
+        <c:axId val="122168448"/>
+        <c:axId val="122169984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58046336"/>
+        <c:axId val="122168448"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2376,14 +2371,14 @@
           </c:spPr>
         </c:majorGridlines>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="58047872"/>
+        <c:crossAx val="122169984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58047872"/>
+        <c:axId val="122169984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2393,10 +2388,10 @@
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="58046336"/>
+        <c:crossAx val="122168448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.33330000000000343"/>
+        <c:majorUnit val="0.33330000000000354"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2438,7 +2433,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.75000000000000366" r="0.75000000000000366" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.75000000000000377" r="0.75000000000000377" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2524,28 +2519,27 @@
             </c:numLit>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="58065664"/>
-        <c:axId val="58067200"/>
+        <c:axId val="128815104"/>
+        <c:axId val="128816640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58065664"/>
+        <c:axId val="128815104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="58067200"/>
+        <c:crossAx val="128816640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58067200"/>
+        <c:axId val="128816640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2547,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="58065664"/>
+        <c:crossAx val="128815104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,7 +2586,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.75000000000000366" r="0.75000000000000366" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.75000000000000377" r="0.75000000000000377" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2678,28 +2672,27 @@
             </c:numLit>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="58084736"/>
-        <c:axId val="58086528"/>
+        <c:axId val="128875136"/>
+        <c:axId val="128881024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58084736"/>
+        <c:axId val="128875136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="58086528"/>
+        <c:crossAx val="128881024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58086528"/>
+        <c:axId val="128881024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2700,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="58084736"/>
+        <c:crossAx val="128875136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2746,7 +2739,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.75000000000000366" r="0.75000000000000366" t="0.98425196899999956" header="0.49212598450000183" footer="0.49212598450000183"/>
+    <c:pageMargins b="0.98425196899999956" l="0.75000000000000377" r="0.75000000000000377" t="0.98425196899999956" header="0.49212598450000189" footer="0.49212598450000189"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3268,7 +3261,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3534,10 +3527,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:I21"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3560,17 +3556,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="150" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
@@ -3592,14 +3588,14 @@
     <row r="2" spans="1:24" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="7"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="O2" s="16"/>
@@ -3614,17 +3610,17 @@
       <c r="X2" s="67"/>
     </row>
     <row r="3" spans="1:24" s="9" customFormat="1" ht="25.5">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="152" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
       <c r="H3" s="12">
         <v>0</v>
       </c>
@@ -3656,20 +3652,20 @@
       <c r="X3" s="67"/>
     </row>
     <row r="4" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="141"/>
       <c r="M4" s="51"/>
       <c r="N4" s="49">
         <v>0.3</v>
@@ -3695,19 +3691,19 @@
       <c r="X4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="165" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="131"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
@@ -3741,17 +3737,17 @@
       <c r="X5" s="67"/>
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="128"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="160"/>
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
@@ -3785,19 +3781,19 @@
       <c r="X6" s="67"/>
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="165" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="134"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
@@ -3831,17 +3827,17 @@
       <c r="X7" s="67"/>
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A8" s="135"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="123"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
@@ -3875,17 +3871,17 @@
       <c r="X8" s="67"/>
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="128"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="134"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="172"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
       <c r="J9" s="60"/>
@@ -3919,20 +3915,20 @@
       <c r="X9" s="67"/>
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="141"/>
       <c r="M10" s="51"/>
       <c r="N10" s="49">
         <v>0.3</v>
@@ -3952,19 +3948,19 @@
       <c r="X10" s="67"/>
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="174" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -3998,17 +3994,17 @@
       <c r="X11" s="67"/>
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A12" s="137"/>
+      <c r="A12" s="175"/>
       <c r="B12" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
@@ -4048,13 +4044,13 @@
       <c r="B13" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
@@ -4088,20 +4084,20 @@
       <c r="X13" s="67"/>
     </row>
     <row r="14" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
       <c r="M14" s="53"/>
       <c r="N14" s="49">
         <v>0.4</v>
@@ -4127,13 +4123,13 @@
       <c r="B15" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="151"/>
       <c r="H15" s="75"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
@@ -4167,19 +4163,19 @@
       <c r="X15" s="67"/>
     </row>
     <row r="16" spans="1:24" ht="27.75" customHeight="1">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="154" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="147" t="s">
+      <c r="C16" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
@@ -4213,17 +4209,17 @@
       <c r="X16" s="70"/>
     </row>
     <row r="17" spans="1:24" ht="27.75" customHeight="1">
-      <c r="A17" s="146"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="75"/>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -4257,17 +4253,17 @@
       <c r="X17" s="70"/>
     </row>
     <row r="18" spans="1:24" ht="30.75" customHeight="1">
-      <c r="A18" s="146"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
@@ -4328,22 +4324,22 @@
     </row>
     <row r="20" spans="1:24" ht="27.75" customHeight="1">
       <c r="B20" s="9"/>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="139" t="str">
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="147" t="str">
         <f>IF(S4=0,"!",O4+O10+O14)</f>
         <v>!</v>
       </c>
-      <c r="I20" s="139"/>
-      <c r="J20" s="138" t="s">
+      <c r="I20" s="147"/>
+      <c r="J20" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="138"/>
+      <c r="K20" s="146"/>
       <c r="O20" s="16"/>
       <c r="P20" s="69"/>
       <c r="Q20" s="105"/>
@@ -4357,19 +4353,19 @@
     </row>
     <row r="21" spans="1:24" ht="26.25" customHeight="1">
       <c r="B21" s="9"/>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="171" t="s">
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="172"/>
+      <c r="K21" s="130"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="O21" s="16"/>
@@ -4407,12 +4403,12 @@
       <c r="B23" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="162" t="s">
+      <c r="C23" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
@@ -4431,17 +4427,17 @@
       <c r="X23" s="70"/>
     </row>
     <row r="24" spans="1:24" ht="12.75" customHeight="1">
-      <c r="B24" s="167" t="str">
+      <c r="B24" s="125" t="str">
         <f>CONCATENATE(Identification!B9," ",Identification!B10)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C24" s="167" t="str">
+      <c r="C24" s="125" t="str">
         <f>CONCATENATE(Identification!B7," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
@@ -4460,11 +4456,11 @@
       <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1">
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
       <c r="H25" s="72"/>
       <c r="I25" s="70"/>
       <c r="J25" s="70"/>
@@ -4483,11 +4479,11 @@
       <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" thickBot="1">
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
       <c r="H26" s="40"/>
       <c r="I26" s="80"/>
       <c r="J26" s="40"/>
@@ -4509,18 +4505,18 @@
       <c r="B27" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="154"/>
-      <c r="H27" s="173" t="s">
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136"/>
+      <c r="H27" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="O27" s="16"/>
@@ -4539,17 +4535,17 @@
         <f>CONCATENATE(Identification!B18," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C28" s="159" t="str">
+      <c r="C28" s="117" t="str">
         <f>CONCATENATE(Identification!C18," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="161"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="128"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
       <c r="O28" s="16"/>
@@ -4568,13 +4564,13 @@
         <f>CONCATENATE(Identification!B19," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C29" s="159" t="str">
+      <c r="C29" s="117" t="str">
         <f>CONCATENATE(Identification!C19," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="161"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
       <c r="O29" s="16"/>
       <c r="P29" s="69"/>
       <c r="Q29" s="70"/>
@@ -4743,6 +4739,34 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" pivotTables="0"/>
   <mergeCells count="39">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H2:K2"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C21:G21"/>
@@ -4754,34 +4778,6 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="H21:I21">
@@ -4817,8 +4813,8 @@
       <formula>$L$28</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.37" right="0.31" top="0.43" bottom="0.36" header="0.51181102362204722" footer="0.36"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
